--- a/Project_pq-pdfdata2mods/review/College_School_Dept_Program (Print).xlsx
+++ b/Project_pq-pdfdata2mods/review/College_School_Dept_Program (Print).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CS\TechResources\ETDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Annie/Documents/GitHub/etd-metadata/Project_pq-pdfdata2mods/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73D525-196B-9A45-9F2A-2C584D3C02DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="36" windowWidth="14376" windowHeight="12528"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14380" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,6 +618,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -652,6 +670,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -827,25 +862,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -865,7 +900,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -876,7 +911,7 @@
       </c>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,7 +922,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,7 +933,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -909,7 +944,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,18 +955,18 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,7 +977,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -953,7 +988,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,7 +999,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,7 +1010,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -986,7 +1021,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1032,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1043,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1054,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1065,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1076,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +1098,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1109,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1120,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1131,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1142,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1153,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1164,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1175,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1186,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1197,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1219,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1230,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1241,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
@@ -1217,7 +1252,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1263,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1274,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
@@ -1248,7 +1283,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -1259,7 +1294,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>34</v>
       </c>
@@ -1270,7 +1305,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +1316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1327,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1338,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>19</v>
       </c>
@@ -1314,7 +1349,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>19</v>
       </c>
@@ -1325,7 +1360,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +1371,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>19</v>
       </c>
@@ -1347,7 +1382,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1393,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>39</v>
       </c>
@@ -1369,7 +1404,7 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
@@ -1380,7 +1415,7 @@
       </c>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>39</v>
       </c>
@@ -1391,7 +1426,7 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>39</v>
       </c>
@@ -1402,7 +1437,7 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -1411,7 +1446,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1457,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1466,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>61</v>
       </c>
@@ -1440,7 +1475,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
@@ -1449,7 +1484,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>64</v>
       </c>
@@ -1458,7 +1493,7 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1504,7 @@
       </c>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +1515,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>10</v>
       </c>
@@ -1491,7 +1526,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1537,7 @@
       </c>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1548,7 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1570,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1581,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +1592,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1614,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="13"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1623,7 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1634,7 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1645,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
@@ -1621,7 +1656,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1667,7 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1678,7 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1689,7 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>56</v>
       </c>
@@ -1663,7 +1698,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>56</v>
       </c>
@@ -1675,7 +1710,7 @@
       <c r="E76" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E79">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
     <sortCondition ref="A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1684,24 +1719,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project_pq-pdfdata2mods/review/College_School_Dept_Program (Print).xlsx
+++ b/Project_pq-pdfdata2mods/review/College_School_Dept_Program (Print).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Annie/Documents/GitHub/etd-metadata/Project_pq-pdfdata2mods/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73D525-196B-9A45-9F2A-2C584D3C02DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0320E713-0B66-CA43-A95C-F9C722EADE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14380" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14020" yWindow="4700" windowWidth="14380" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,10 +970,10 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
